--- a/UniApplikation/OutputFiles/WPM2.xlsx
+++ b/UniApplikation/OutputFiles/WPM2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Platznummer</t>
   </si>
@@ -32,94 +32,154 @@
     <t>Studentenname</t>
   </si>
   <si>
+    <t>Student21</t>
+  </si>
+  <si>
+    <t>Student148</t>
+  </si>
+  <si>
+    <t>Student101</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
+    <t>Student76</t>
+  </si>
+  <si>
+    <t>Student128</t>
+  </si>
+  <si>
+    <t>Student142</t>
+  </si>
+  <si>
+    <t>Student96</t>
+  </si>
+  <si>
+    <t>Student77</t>
+  </si>
+  <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student136</t>
+  </si>
+  <si>
+    <t>Student129</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Gernert</t>
+  </si>
+  <si>
+    <t>Student73</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student78</t>
+  </si>
+  <si>
+    <t>Student56</t>
+  </si>
+  <si>
+    <t>Student50</t>
+  </si>
+  <si>
     <t>Student36</t>
   </si>
   <si>
+    <t>Student140</t>
+  </si>
+  <si>
+    <t>Student66</t>
+  </si>
+  <si>
+    <t>Student149</t>
+  </si>
+  <si>
     <t>Student59</t>
   </si>
   <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student21</t>
-  </si>
-  <si>
-    <t>Student78</t>
+    <t>Student61</t>
+  </si>
+  <si>
+    <t>Student146</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student75</t>
+  </si>
+  <si>
+    <t>Student107</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student109</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student99</t>
+  </si>
+  <si>
+    <t>Student72</t>
   </si>
   <si>
     <t>Student24</t>
   </si>
   <si>
-    <t>Student142</t>
-  </si>
-  <si>
     <t>Student112</t>
   </si>
   <si>
-    <t>Student136</t>
-  </si>
-  <si>
-    <t>Student129</t>
-  </si>
-  <si>
-    <t>Student15</t>
-  </si>
-  <si>
-    <t>Student109</t>
-  </si>
-  <si>
-    <t>Student77</t>
-  </si>
-  <si>
-    <t>Student50</t>
-  </si>
-  <si>
-    <t>Student73</t>
-  </si>
-  <si>
-    <t>Student107</t>
-  </si>
-  <si>
-    <t>Student149</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student61</t>
-  </si>
-  <si>
-    <t>Student96</t>
-  </si>
-  <si>
-    <t>Student128</t>
-  </si>
-  <si>
-    <t>Student150</t>
-  </si>
-  <si>
-    <t>Student13</t>
-  </si>
-  <si>
-    <t>Student148</t>
-  </si>
-  <si>
-    <t>Student119</t>
-  </si>
-  <si>
-    <t>Student143</t>
-  </si>
-  <si>
-    <t>Student74</t>
-  </si>
-  <si>
-    <t>Student66</t>
-  </si>
-  <si>
-    <t>Student40</t>
-  </si>
-  <si>
-    <t>Student18</t>
+    <t>Student93</t>
+  </si>
+  <si>
+    <t>Student33</t>
+  </si>
+  <si>
+    <t>Student110</t>
+  </si>
+  <si>
+    <t>Student38</t>
+  </si>
+  <si>
+    <t>Student37</t>
+  </si>
+  <si>
+    <t>Student97</t>
+  </si>
+  <si>
+    <t>Student67</t>
+  </si>
+  <si>
+    <t>Student114</t>
+  </si>
+  <si>
+    <t>Student58</t>
+  </si>
+  <si>
+    <t>Student137</t>
+  </si>
+  <si>
+    <t>Student121</t>
+  </si>
+  <si>
+    <t>Student27</t>
+  </si>
+  <si>
+    <t>Student87</t>
   </si>
 </sst>
 </file>
@@ -172,6 +232,20 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B51" totalsRowShown="0">
+  <autoFilter ref="A1:B51"/>
+  <sortState ref="A2:B51">
+    <sortCondition ref="B1:B51"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Platznummer"/>
+    <tableColumn id="2" name="Studentenname"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,11 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -453,18 +533,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -477,66 +557,66 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,149 +629,312 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>19</v>
+      </c>
+      <c r="B33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>22</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>15</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>31</v>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>17</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>34</v>
+      </c>
+      <c r="B51" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/UniApplikation/OutputFiles/WPM2.xlsx
+++ b/UniApplikation/OutputFiles/WPM2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,151 +35,151 @@
     <t>Student21</t>
   </si>
   <si>
+    <t>Student142</t>
+  </si>
+  <si>
+    <t>Student136</t>
+  </si>
+  <si>
+    <t>Gernert</t>
+  </si>
+  <si>
+    <t>Student99</t>
+  </si>
+  <si>
+    <t>Student76</t>
+  </si>
+  <si>
+    <t>Student78</t>
+  </si>
+  <si>
+    <t>Student61</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Student66</t>
+  </si>
+  <si>
+    <t>Student59</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student107</t>
+  </si>
+  <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student129</t>
+  </si>
+  <si>
+    <t>Student77</t>
+  </si>
+  <si>
+    <t>Student17</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student50</t>
+  </si>
+  <si>
+    <t>Student36</t>
+  </si>
+  <si>
+    <t>Student109</t>
+  </si>
+  <si>
+    <t>Student56</t>
+  </si>
+  <si>
+    <t>Student13</t>
+  </si>
+  <si>
     <t>Student148</t>
   </si>
   <si>
+    <t>Student150</t>
+  </si>
+  <si>
+    <t>Student137</t>
+  </si>
+  <si>
+    <t>Student96</t>
+  </si>
+  <si>
     <t>Student101</t>
   </si>
   <si>
-    <t>Student13</t>
-  </si>
-  <si>
-    <t>Student76</t>
+    <t>Student24</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student149</t>
+  </si>
+  <si>
+    <t>Student73</t>
+  </si>
+  <si>
+    <t>Student72</t>
+  </si>
+  <si>
+    <t>Student31</t>
+  </si>
+  <si>
+    <t>Student112</t>
   </si>
   <si>
     <t>Student128</t>
   </si>
   <si>
-    <t>Student142</t>
-  </si>
-  <si>
-    <t>Student96</t>
-  </si>
-  <si>
-    <t>Student77</t>
-  </si>
-  <si>
-    <t>Student18</t>
-  </si>
-  <si>
-    <t>Student136</t>
-  </si>
-  <si>
-    <t>Student129</t>
-  </si>
-  <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Gernert</t>
-  </si>
-  <si>
-    <t>Student73</t>
-  </si>
-  <si>
-    <t>Student15</t>
-  </si>
-  <si>
-    <t>Student78</t>
-  </si>
-  <si>
-    <t>Student56</t>
-  </si>
-  <si>
-    <t>Student50</t>
-  </si>
-  <si>
-    <t>Student36</t>
+    <t>Student14</t>
+  </si>
+  <si>
+    <t>Student146</t>
+  </si>
+  <si>
+    <t>Student75</t>
+  </si>
+  <si>
+    <t>Student62</t>
+  </si>
+  <si>
+    <t>Student41</t>
+  </si>
+  <si>
+    <t>Student108</t>
+  </si>
+  <si>
+    <t>Student58</t>
+  </si>
+  <si>
+    <t>Student105</t>
+  </si>
+  <si>
+    <t>Student38</t>
+  </si>
+  <si>
+    <t>Student26</t>
+  </si>
+  <si>
+    <t>Student93</t>
   </si>
   <si>
     <t>Student140</t>
   </si>
   <si>
-    <t>Student66</t>
-  </si>
-  <si>
-    <t>Student149</t>
-  </si>
-  <si>
-    <t>Student59</t>
-  </si>
-  <si>
-    <t>Student61</t>
-  </si>
-  <si>
-    <t>Student146</t>
-  </si>
-  <si>
-    <t>Student17</t>
-  </si>
-  <si>
-    <t>Student119</t>
-  </si>
-  <si>
-    <t>Student75</t>
-  </si>
-  <si>
-    <t>Student107</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
-    <t>Student109</t>
-  </si>
-  <si>
-    <t>Student74</t>
-  </si>
-  <si>
-    <t>Student99</t>
-  </si>
-  <si>
-    <t>Student72</t>
-  </si>
-  <si>
-    <t>Student24</t>
-  </si>
-  <si>
-    <t>Student112</t>
-  </si>
-  <si>
-    <t>Student93</t>
-  </si>
-  <si>
-    <t>Student33</t>
-  </si>
-  <si>
-    <t>Student110</t>
-  </si>
-  <si>
-    <t>Student38</t>
-  </si>
-  <si>
-    <t>Student37</t>
-  </si>
-  <si>
-    <t>Student97</t>
-  </si>
-  <si>
-    <t>Student67</t>
-  </si>
-  <si>
-    <t>Student114</t>
-  </si>
-  <si>
-    <t>Student58</t>
-  </si>
-  <si>
-    <t>Student137</t>
-  </si>
-  <si>
-    <t>Student121</t>
-  </si>
-  <si>
-    <t>Student27</t>
-  </si>
-  <si>
-    <t>Student87</t>
+    <t>Student3</t>
   </si>
 </sst>
 </file>
@@ -232,20 +232,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:B51" totalsRowShown="0">
-  <autoFilter ref="A1:B51"/>
-  <sortState ref="A2:B51">
-    <sortCondition ref="B1:B51"/>
-  </sortState>
-  <tableColumns count="2">
-    <tableColumn id="1" name="Platznummer"/>
-    <tableColumn id="2" name="Studentenname"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -513,15 +499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -533,18 +513,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,66 +537,66 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,312 +609,309 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
--- a/UniApplikation/OutputFiles/WPM2.xlsx
+++ b/UniApplikation/OutputFiles/WPM2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5040" windowHeight="10245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14565"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,151 +35,151 @@
     <t>Student21</t>
   </si>
   <si>
+    <t>Student18</t>
+  </si>
+  <si>
+    <t>Student74</t>
+  </si>
+  <si>
+    <t>Student72</t>
+  </si>
+  <si>
+    <t>Student76</t>
+  </si>
+  <si>
+    <t>Student66</t>
+  </si>
+  <si>
+    <t>Student112</t>
+  </si>
+  <si>
+    <t>Student148</t>
+  </si>
+  <si>
+    <t>Student96</t>
+  </si>
+  <si>
+    <t>Student56</t>
+  </si>
+  <si>
+    <t>Student128</t>
+  </si>
+  <si>
+    <t>Student101</t>
+  </si>
+  <si>
+    <t>Student15</t>
+  </si>
+  <si>
+    <t>Gernert</t>
+  </si>
+  <si>
+    <t>Student61</t>
+  </si>
+  <si>
+    <t>Student107</t>
+  </si>
+  <si>
+    <t>Student78</t>
+  </si>
+  <si>
+    <t>Student129</t>
+  </si>
+  <si>
+    <t>Student77</t>
+  </si>
+  <si>
+    <t>Student119</t>
+  </si>
+  <si>
+    <t>Student109</t>
+  </si>
+  <si>
+    <t>Student1</t>
+  </si>
+  <si>
+    <t>Student136</t>
+  </si>
+  <si>
     <t>Student142</t>
   </si>
   <si>
-    <t>Student136</t>
-  </si>
-  <si>
-    <t>Gernert</t>
+    <t>Student59</t>
+  </si>
+  <si>
+    <t>Student146</t>
+  </si>
+  <si>
+    <t>Student2</t>
+  </si>
+  <si>
+    <t>Student50</t>
+  </si>
+  <si>
+    <t>Student24</t>
   </si>
   <si>
     <t>Student99</t>
   </si>
   <si>
-    <t>Student76</t>
-  </si>
-  <si>
-    <t>Student78</t>
-  </si>
-  <si>
-    <t>Student61</t>
-  </si>
-  <si>
-    <t>Student15</t>
-  </si>
-  <si>
-    <t>Student66</t>
-  </si>
-  <si>
-    <t>Student59</t>
-  </si>
-  <si>
-    <t>Student74</t>
-  </si>
-  <si>
-    <t>Student107</t>
-  </si>
-  <si>
-    <t>Student18</t>
-  </si>
-  <si>
-    <t>Student129</t>
-  </si>
-  <si>
-    <t>Student77</t>
-  </si>
-  <si>
-    <t>Student17</t>
-  </si>
-  <si>
-    <t>Student119</t>
-  </si>
-  <si>
-    <t>Student50</t>
+    <t>Student150</t>
   </si>
   <si>
     <t>Student36</t>
   </si>
   <si>
-    <t>Student109</t>
-  </si>
-  <si>
-    <t>Student56</t>
-  </si>
-  <si>
     <t>Student13</t>
   </si>
   <si>
-    <t>Student148</t>
-  </si>
-  <si>
-    <t>Student150</t>
-  </si>
-  <si>
-    <t>Student137</t>
-  </si>
-  <si>
-    <t>Student96</t>
-  </si>
-  <si>
-    <t>Student101</t>
-  </si>
-  <si>
-    <t>Student24</t>
-  </si>
-  <si>
-    <t>Student1</t>
-  </si>
-  <si>
-    <t>Student2</t>
-  </si>
-  <si>
     <t>Student149</t>
   </si>
   <si>
     <t>Student73</t>
   </si>
   <si>
-    <t>Student72</t>
-  </si>
-  <si>
-    <t>Student31</t>
-  </si>
-  <si>
-    <t>Student112</t>
-  </si>
-  <si>
-    <t>Student128</t>
+    <t>Student3</t>
+  </si>
+  <si>
+    <t>Student140</t>
+  </si>
+  <si>
+    <t>Student51</t>
+  </si>
+  <si>
+    <t>Student87</t>
+  </si>
+  <si>
+    <t>Student75</t>
   </si>
   <si>
     <t>Student14</t>
   </si>
   <si>
-    <t>Student146</t>
-  </si>
-  <si>
-    <t>Student75</t>
-  </si>
-  <si>
-    <t>Student62</t>
-  </si>
-  <si>
-    <t>Student41</t>
-  </si>
-  <si>
-    <t>Student108</t>
-  </si>
-  <si>
-    <t>Student58</t>
+    <t>Student113</t>
+  </si>
+  <si>
+    <t>Student26</t>
+  </si>
+  <si>
+    <t>Student80</t>
+  </si>
+  <si>
+    <t>Student115</t>
   </si>
   <si>
     <t>Student105</t>
   </si>
   <si>
-    <t>Student38</t>
-  </si>
-  <si>
-    <t>Student26</t>
-  </si>
-  <si>
-    <t>Student93</t>
-  </si>
-  <si>
-    <t>Student140</t>
-  </si>
-  <si>
-    <t>Student3</t>
+    <t>Student103</t>
+  </si>
+  <si>
+    <t>Student121</t>
+  </si>
+  <si>
+    <t>Student97</t>
+  </si>
+  <si>
+    <t>Student131</t>
   </si>
 </sst>
 </file>
